--- a/Configs/GameConfig/Datas/item.xlsx
+++ b/Configs/GameConfig/Datas/item.xlsx
@@ -4,12 +4,25 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20304" windowHeight="8364"/>
+    <workbookView windowWidth="28800" windowHeight="11700"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -350,7 +363,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -380,27 +393,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -414,14 +406,6 @@
       <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -461,6 +445,21 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -509,6 +508,20 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -531,18 +544,96 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -555,19 +646,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -579,115 +670,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -764,21 +777,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -807,6 +805,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -863,230 +876,230 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="31" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="7" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="31" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="7" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="23" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="22" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="23" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="31" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="22" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="31" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="23" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="23" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="22" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="22" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="31" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="23" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1360,27 +1373,27 @@
   <dimension ref="A1:AI15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
-    <col min="1" max="1" width="9.22222222222222" customWidth="1"/>
+    <col min="1" max="1" width="9.22321428571429" customWidth="1"/>
     <col min="2" max="2" width="6.75" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="12.3796296296296" customWidth="1"/>
+    <col min="4" max="4" width="12.3839285714286" customWidth="1"/>
     <col min="5" max="5" width="5.5" customWidth="1"/>
     <col min="6" max="6" width="18.75" customWidth="1"/>
     <col min="7" max="7" width="16.5" customWidth="1"/>
-    <col min="8" max="8" width="13.1296296296296" customWidth="1"/>
-    <col min="9" max="9" width="12.3796296296296" customWidth="1"/>
-    <col min="10" max="10" width="17.8796296296296" customWidth="1"/>
+    <col min="8" max="8" width="13.1339285714286" customWidth="1"/>
+    <col min="9" max="9" width="12.3839285714286" customWidth="1"/>
+    <col min="10" max="10" width="17.8839285714286" customWidth="1"/>
     <col min="11" max="11" width="28" customWidth="1"/>
     <col min="12" max="12" width="13" customWidth="1"/>
-    <col min="13" max="13" width="5.12962962962963" customWidth="1"/>
+    <col min="13" max="13" width="5.13392857142857" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:35">
+    <row r="1" s="1" customFormat="1" ht="17" spans="1:35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1417,8 +1430,8 @@
       <c r="L1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="8"/>
-      <c r="N1" s="9"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="13"/>
       <c r="O1"/>
       <c r="P1"/>
       <c r="Q1"/>
@@ -1461,7 +1474,7 @@
       <c r="M2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="9"/>
+      <c r="N2" s="13"/>
       <c r="O2"/>
       <c r="P2"/>
       <c r="Q2"/>
@@ -1512,17 +1525,17 @@
       <c r="I3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="8" t="s">
         <v>21</v>
       </c>
       <c r="K3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="L3" s="12" t="s">
+      <c r="L3" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="M3" s="13"/>
-      <c r="N3" s="9"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="13"/>
       <c r="O3"/>
       <c r="P3"/>
       <c r="Q3"/>
@@ -1563,15 +1576,15 @@
       <c r="I4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="J4" s="8" t="s">
         <v>24</v>
       </c>
       <c r="K4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="L4" s="12"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="13"/>
       <c r="O4"/>
       <c r="P4"/>
       <c r="Q4"/>
@@ -1594,7 +1607,7 @@
       <c r="AH4"/>
       <c r="AI4"/>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:35">
+    <row r="5" s="1" customFormat="1" ht="17" spans="1:35">
       <c r="A5" s="3" t="s">
         <v>27</v>
       </c>
@@ -1630,7 +1643,7 @@
         <v>36</v>
       </c>
       <c r="M5" s="3"/>
-      <c r="N5" s="9"/>
+      <c r="N5" s="13"/>
       <c r="O5"/>
       <c r="P5"/>
       <c r="Q5"/>
@@ -1653,7 +1666,7 @@
       <c r="AH5"/>
       <c r="AI5"/>
     </row>
-    <row r="6" spans="2:13">
+    <row r="6" ht="17" spans="2:13">
       <c r="B6">
         <v>10000</v>
       </c>
@@ -1684,14 +1697,14 @@
       <c r="K6" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="L6" s="14">
+      <c r="L6" s="11">
         <v>10001</v>
       </c>
-      <c r="M6" s="14">
+      <c r="M6" s="11">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:13">
+    <row r="7" ht="17" spans="2:13">
       <c r="B7">
         <v>10001</v>
       </c>
@@ -1722,14 +1735,14 @@
       <c r="K7" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="L7" s="14">
+      <c r="L7" s="11">
         <v>10001</v>
       </c>
-      <c r="M7" s="14">
+      <c r="M7" s="11">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:13">
+    <row r="8" ht="17" spans="2:13">
       <c r="B8">
         <v>10002</v>
       </c>
@@ -1760,14 +1773,14 @@
       <c r="K8" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="L8" s="14">
+      <c r="L8" s="11">
         <v>10001</v>
       </c>
-      <c r="M8" s="14">
+      <c r="M8" s="11">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="2:13">
+    <row r="9" ht="17" spans="2:13">
       <c r="B9">
         <v>10003</v>
       </c>
@@ -1798,14 +1811,14 @@
       <c r="K9" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="L9" s="14">
+      <c r="L9" s="11">
         <v>10001</v>
       </c>
-      <c r="M9" s="14">
+      <c r="M9" s="11">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="2:13">
+    <row r="10" ht="17" spans="2:13">
       <c r="B10">
         <v>10004</v>
       </c>
@@ -1836,14 +1849,14 @@
       <c r="K10" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="L10" s="14">
+      <c r="L10" s="11">
         <v>10001</v>
       </c>
-      <c r="M10" s="14">
+      <c r="M10" s="11">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="2:13">
+    <row r="11" ht="17" spans="2:13">
       <c r="B11">
         <v>10005</v>
       </c>
@@ -1874,14 +1887,14 @@
       <c r="K11" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="L11" s="14">
+      <c r="L11" s="11">
         <v>10001</v>
       </c>
-      <c r="M11" s="14">
+      <c r="M11" s="11">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="2:13">
+    <row r="12" ht="17" spans="2:13">
       <c r="B12">
         <v>10006</v>
       </c>
@@ -1912,10 +1925,10 @@
       <c r="K12" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="L12" s="14">
+      <c r="L12" s="11">
         <v>10001</v>
       </c>
-      <c r="M12" s="14">
+      <c r="M12" s="11">
         <v>8</v>
       </c>
     </row>
@@ -1950,10 +1963,10 @@
       <c r="K13" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="L13" s="14">
+      <c r="L13" s="11">
         <v>10001</v>
       </c>
-      <c r="M13" s="14">
+      <c r="M13" s="11">
         <v>9</v>
       </c>
     </row>
@@ -1988,10 +2001,10 @@
       <c r="K14" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="L14" s="14">
+      <c r="L14" s="11">
         <v>10001</v>
       </c>
-      <c r="M14" s="14">
+      <c r="M14" s="11">
         <v>10</v>
       </c>
     </row>
@@ -2026,10 +2039,10 @@
       <c r="K15" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="L15" s="14">
+      <c r="L15" s="11">
         <v>10001</v>
       </c>
-      <c r="M15" s="14">
+      <c r="M15" s="11">
         <v>11</v>
       </c>
     </row>
